--- a/biology/Botanique/Onosma_arenaria/Onosma_arenaria.xlsx
+++ b/biology/Botanique/Onosma_arenaria/Onosma_arenaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Onosma arenaria, l'Orcanette des sables, est une plante bisannuelle de la famille des Boraginaceae assez commune en Europe. Elle fleurit surtout en mai et juin. Elle apprécie particulièrement les zones calcaires à proximité d'un ruissellement d'eau, avec un climat méditerranéen. C'est une plante thérophyte.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Orcanette des sables est une plante bisannuelle à tige cylindrique, épaisse, dressée, hérissée de poils raides, de 30 à 50 cm de haut.
 La plante entière est d'une couleur jaune-blanche, rigide, colorée et pilifère.
@@ -546,7 +560,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle pousse sur des pelouses et dans les forêts de pins. Elle préfère des sols sablonneux chauds, arides et calcaires.
 </t>
@@ -577,11 +593,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Orcanette des sables est originaire de l'Europe méridionale et centrale, plus particulièrement du sud-est de la France mais aussi de l'est de la Suisse, du nord de l'Italie et de l'Europe du sud-est jusqu'au sud de la Russie. Elle pousse dans l'écozone paléarctique. En Autriche, l'orcanette est très rare (au nord de Wachau) et menacée de disparition. En Suisse, elle est présente sous la forme de la sous-espèce O. arenaria ssp. pennina, cette dernière ayant une plus grande floraison et une tige plus mince que celle de l'orcanette des sables.
-Distribution en Allemagne
-L'Orcanette des sables se retrouve seulement (et rarement) en Allemagne dans le bassin de Mayence (Rhénanie-Palatinat), dans la réserve naturelle des Grands Sables de Mayence. Le nombre d'individus est estimé à environ 200 ou 300.
 </t>
         </is>
       </c>
@@ -607,12 +623,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Protection des espèces</t>
+          <t>Distribution</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'Orcanette des sables est dans la liste rouge de l'UICN. Espèce menacée en Allemagne : Catégorie 1
+          <t>Distribution en Allemagne</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Orcanette des sables se retrouve seulement (et rarement) en Allemagne dans le bassin de Mayence (Rhénanie-Palatinat), dans la réserve naturelle des Grands Sables de Mayence. Le nombre d'individus est estimé à environ 200 ou 300.
 </t>
         </is>
       </c>
@@ -638,10 +660,45 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Protection des espèces</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Orcanette des sables est dans la liste rouge de l'UICN. Espèce menacée en Allemagne : Catégorie 1
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Onosma_arenaria</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Onosma_arenaria</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Onosma arenaria subsp. vaudensis var. elegantissima Braun-Blanq.</t>
         </is>
